--- a/Resources/2006/Basic_Percentile_2006.xlsx
+++ b/Resources/2006/Basic_Percentile_2006.xlsx
@@ -1441,7 +1441,7 @@
     <t>Dwyane Wade</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Chris Webber</t>
@@ -1471,7 +1471,7 @@
     <t>Lamar Odom</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Paul Pierce</t>
@@ -1570,7 +1570,7 @@
     <t>Luol Deng</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Josh Howard</t>
@@ -1594,7 +1594,7 @@
     <t>Andre Miller</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Eddie Jones</t>
@@ -1609,7 +1609,7 @@
     <t>Emeka Okafor</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Luke Ridnour</t>
@@ -1621,7 +1621,7 @@
     <t>Richard Jefferson</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Andrew Bogut</t>
@@ -1630,7 +1630,7 @@
     <t>Zydrunas Ilgauskas</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Antawn Jamison</t>
@@ -1642,7 +1642,7 @@
     <t>Jason Terry</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Hedo Turkoglu</t>
@@ -2035,7 +2035,7 @@
     <t>Brian Skinner</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Marvin Williams</t>
@@ -2134,7 +2134,7 @@
     <t>Pape Sow</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Eddie Griffin</t>
@@ -2173,7 +2173,7 @@
     <t>Damien Wilkins</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Chuck Hayes</t>
